--- a/500all/speech_level/speeches_CHRG-114hhrg94848.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94848.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="488">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400285</t>
   </si>
   <si>
-    <t>Tim Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murphy. Good morning. Today we convene the first meeting of this session of the Subcommittee on Oversight and Investigation of the 114th Congress. I welcome back Members who served here last session, particularly, my friend and colleague, Diana DeGette, the ranking member from Colorado, and the new members from the 114th Congress, which we hope, as we come up, you may introduce them today, and I will introduce ours on our side.    The subcommittee is here to examine a very serious U.S. public health response to seasonal influenza. America is experiencing a severe flu season with an unstable predominant strain that could result in one of the deadliest and costliest flu seasons in recent memory. An estimated 50,000 people will die. Over 200,000 will be hospitalized, and most of these will be senior citizens.    Last February, when public health officials needed to decide what strains would go into this year's seasonal flu vaccine, the FDA bet on the wrong predominant strain. Just a few weeks after the FDA's decision, doubts were already beginning to creep in the scientific community about the FDA's decision. By September, the U.S. vaccine was such a poor match for the dominant strain of flu that the World Health Organization, with consultation from the CDC, revised the vaccine formula, but not for the United States. It was changed for the Southern Hemisphere nations. In other words, the American people were stuck with a vaccine that wasn't going to work for nearly 4 out of 5 people, and for nearly 9 out of 10 seniors. Despite a growing body of knowledge that the vaccine for the United States would not be effective, production went forward anyway for a number of reasons that we hope to discuss today.    With a mismatched strain, this year's vaccine is estimated to be only 23 percent effective. It is even lower for the elderly at 12 percent. While this season's vaccine has a lower-than-usual effectiveness, CDC is still recommending vaccinations for everyone 6 months or older. In addition to vaccination, CDC has also recommended that all high-risk patients should be treated with antiviral drugs as soon as possible when influenza is suspected.    So what are agencies doing to communicate with the public? Many are choosing not to vaccinate against the flu because they hear the vaccine doesn't work, so why bother. We are seeing a similar result with measles vaccinations but for very different reasons, and now we are paying the piper for more than 100 cases have been stricken with a disease of measles that had once been eradicated from our shores.    False rumors still exist that vaccines and a preservative for multi-dose vaccines, which once used a microscopic amount of mercury as a preservative to prevent bacteria growth, led to autism. There is no credible evidence to support that claim. In fact, mercury is not used as a preservative in the MMR vaccine, and in developing nations where vaccination rates have increased, autism rates have not changed. So in addition to understanding why this year's flu vaccine missed so badly, and what should be done to protect the public in future years, I hope we can use this platform to educate the public and advance vaccine development in the interest of public health.    Now on to the flu vaccine. We must know: Did the Federal Government do everything it could at the right time to respond to the challenge of this year's flu season? As I noted, the CDC knew in late September that there was a significant mismatch, as great as 50 percent, with the U.S. vaccine, however, the CDC did not issue a health advisory in response to this mismatch until more than 2 months later. Did the CDC make the right public health decision to delay the health advisory, especially on delaying a recommendation to treat high-risk patients with antivirals? Could vaccine manufacturers have developed a new vaccine for high-risk groups? The CDC and the FDA tell us that the significant change in the strain could not have been addressed any earlier than September 2014, way too late to make changes in the U.S. vaccine. However, one flu expert at the University of Utah School of Medicine has stated on the record that there was a pretty good indication that the drifted strain by April or May 2014, that probably would have led to a decision to change at that time if strain selection decisions for manufacturing were made in May instead of February.    In hindsight, it was a bad decision, and thousands will die. Surely there are lessons to be learned here to do something different in the future, and we want to know how we can partner with these agencies to come up with some solutions.    In 2009, when there was a similar outbreak of the swine flu, Federal agencies declared a public health emergency and responded by producing a monovalent, or single strain, vaccine to protect the public in a very short time. In only 12 weeks, they had developed this new vaccine. Here, we must know, was a monovalent rescue vaccine targeting the drifted strain a possible response? Who made the decision to not go forward with a different vaccine? If not, was this partly because the FDA and other agencies lacked emergency authority to respond? Did they recognize the problem and ask for authority to respond quicker? If an astounding 50,000 deaths and 200,000-plus hospitalizations does not equal an emergency then what is? Shouldn't we be treating this problem with more urgency, and is there even a backup plan in the event a vaccine mismatch to a deadly strain exists?    HHS has set a goal for vaccines to vaccinate 70 percent of their population as part of the Healthy People 2020 initiatives, but overall vaccination rates in the U.S. have been around 45 to 46 percent in the last few years. CDC has not even met its target of 50 percent. Does the CDC have an effective strategy to increase vaccination rates, or is there a better strategy for reducing flu deaths than seeking further increases of vaccination rates in all subgroups?    So we are here today to challenge some of the policies and decisions, but in the spirit of us all working together to make improvements in the public health response to seasonal flu. I am encouraged by the potential of ongoing research and innovation. We appreciate the cooperation and attendance of these excellent witnesses from the CDC, the FDA, NIH, and BARDA. We need your input to help us decide how we change this system for the better. I welcome our witnesses today, and thank them for help in this inquiry.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400101</t>
   </si>
   <si>
-    <t>Diana DeGette</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DeGette. Thank you so much, Mr. Chairman. I am really happy that our first hearing of this new Congress is on an area of bipartisan concern and interest. And I want to join you in welcoming our new members on both sides of the aisle to this committee. This is a venerable committee that has a long history of bipartisan investigations, and I think it is going to be a really important year to continue this trend.    Flu preparedness and response is incredibly important, and this committee has a long history of hearings and investigations on this issue. What we need to do is come together in support of a strong public health infrastructure that prevents outbreaks, and responds quickly and appropriately when they occur.    These past several months have been a harsh reminder that infectious disease is all around us. Last October and November, this subcommittee convened hearings on the Ebola outbreak and the dire situation in West Africa. We saw and, frankly, continue to see, the deadly consequences of a breakdown in the public health infrastructure there. Fortunately, we are now seeing the lowest number of new Ebola cases since last June, largely because of international efforts both to build and operate effective Ebola treatment centers, and also education of local populations on Ebola prevention and control. But, you know, it is interesting because as much attention as we have given to Ebola in this country, far more people die every month from influenza than they do of Ebola, and this is a continuing problem.    This month, we are hearing about the measles outbreak, which was linked to Disneyland in California and has now spread to at least 14 States. Infectious disease experts at the CDC and the State health departments have mounted a fast and aggressive response to prevent this highly contagious disease from spreading.    And, Mr. Chairman, I know you have received a letter from me and Ranking Member Pallone and Ranking Member Green asking this committee to hold a targeted hearing on the measles outbreak and the urgent public health threat. I would like to make a copy of that letter part of the record, Mr. Chairman.    [The information is available at the conclusion of the hearing.]    And, while that letter is pending, I want to commend you, Dr. Fauci. I saw you on the news last night telling all of the families in America to get their measles vaccine, and I really appreciate that. I want to add from this podium, as the mother of two daughters, one of whom is immunocompromised: Vaccinate your children against measles. There is no reason not to, and there is every reason that they could be a threat to themselves and other children if they don't get that vaccine. So I just want to pile onto that. It is very, very important.    But on to the flu, which is the topic of this hearing, the predominant strain of flu is H3N2, which is resulting in increased hospitalizations, particularly for vulnerable populations like seniors and young children. And the CDC announced several weeks ago that the flu vaccine has only 23 percent effectiveness. That is significantly lower than in recent years, and as the chairman mentioned, it is largely due to changes in the virus that have resulted in a mismatch between the strain of the virus used in vaccine production and the one actually circulating. But even with a 23 percent effectiveness, we still need to protect ourselves as much as we can. Dr. Frieden reminded us several weeks ago that even a vaccine with 23 percent effectiveness will still prevent millions of people from getting sick. And so, therefore, as the chairman said, people also need to get this vaccine. And it is not too late; flu season is still going on. We have to do everything we can to protect our vulnerable populations; young children, seniors, pregnant women, and others with compromised immune systems.    So I am looking forward to hearing from our wonderful witnesses today about what we can do to mitigate the effects of this flu season, and how doctors and hospitals are prepared to respond. I also want to look to the future. What can we do to inform our prevention and response efforts in future flu seasons? I want to hear about the research and technological developments in diagnostics, antiviral treatments, and vaccines.    In our last hearing on this topic in February 2013, we heard about FDA approval of quadrivalent vaccines and cell base technology. Today, I am hoping our witnesses can give us encouraging news about the development of a universal flu vaccine.    So regardless of the particular effectiveness rate in a given season, the flu vaccine remains the best tool that we have to protect as many people as possible, and we need to have ongoing work on that. This flu season reminds us that it is almost impossible to predict what the strain will be, but it underscores the importance of a strong public health infrastructure.    And so, Mr. Chairman, I just want to say I appreciate the witnesses coming today. I hope we can all work together to move the country toward better flu preparedness.</t>
   </si>
   <si>
@@ -76,27 +70,18 @@
     <t>400414</t>
   </si>
   <si>
-    <t>Fred Upton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Upton. Well, thank you, Mr. Chairman.    This is an important issue, that is for sure, and it has been an especially harsh flu season, and preliminary estimates show that this year's vaccine is only 23 percent effective in preventing folks from going to the doctor for treatment, even lower for high-risk groups, which is often the case I know.    Usually, the flu vaccine is about 50 to 60 percent effective, and I, like many folks back in Michigan and across the country, would like to see us do better in addressing this major public health threat.    Every year, between 5 and 20 percent of Americans get the flu. In a severe flu season like this one, there could be more than 50,000 deaths, over 200,000 hospitalizations, and more than $10 billion spent on direct medical costs. The flu is and should be a top priority for all of U.S. public health.    This year's vaccine, we know, is less effective because it is not a good match for the flu strain that has become dominant. The flu virus strain changed significantly during the 6 months after the strain selection decision for the U.S. was made. The World Health Organization, in September, recommended changing the flu vaccine for the Southern Hemisphere to use in their upcoming flu season that starts in April but by the time the change in virus was evident, it was too late to change the U.S. vaccine.    Now, it is worth pointing out that the CDC continues to recommend vaccinations in the U.S., even with a lower effectiveness, and that high-risk patients should be treated as soon as possible with all antiviral drugs.    When we learned that there was a shift in the virus, what options were available to respond to the mismatch in viruses? Was there a way to deploy a rescue vaccine targeting just the changed virus? Was there a way to improve the effectiveness of this year's vaccine by adding substances to boost the immune response? Those are some of the questions that we need to have answered as we proceed with this hearing.    And I appreciate the folks that are testifying today and yield to Dr. Burgess and then to Marsha Blackburn.</t>
   </si>
   <si>
     <t>400052</t>
   </si>
   <si>
-    <t>Michael C. Burgess</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Burgess. I thank the chairman for yielding. And, Mr. Chairman, thank you for holding the hearing today.    In fiscal year 2014, the estimated Federal investment in seasonal flu preparedness exceeded $850 million. The public-private partnership driving research and development has had successes, but we must do better.    First, communication between agencies and with the public must improve. If there is a mismatch in the vaccine, which became apparent in May or even as late as September, it is unacceptable that advisories were not issued until December. Second, there must be transparency and consistency in the regulatory pathways for innovation in vaccines. Experts have recognized the promise of adjuvanted flu vaccines for over a decade, yet not one is licensed in the United States, and no guidance has been issued. Third, greater emphasis must be placed on modernizing the development and manufacture of flu vaccines. I would add my acknowledgement to the ranking member of the subcommittee, I too at one time was promised a universal flu vaccine, I think in this committee at a hearing just like this. That was probably in 2004 or 2005. We are still waiting. We want to see it.    So I appreciate the opportunity to be able to speak on this. I look forward to hearing from our witnesses.    And I will yield the balance of the time to Mrs. Blackburn, Vice Chair of the full committee.</t>
   </si>
   <si>
     <t>400032</t>
   </si>
   <si>
-    <t>Marsha Blackburn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Blackburn. Thank you, Mr. Chairman. And I want to continue our conversation about vaccinations. And, yes, we are talking about flu today, but there is another issue out there and Ms. DeGette mentioned this. Vaccine politics injected into 2016, measles outbreak infects politics and debate.    Now, this is far too serious an issue to be treated as a political football. People still die from measles. And the CDC Web site tells us it was eliminated from the U.S. in 2000, but yet we are seeing this outbreak. And I have to tell you, it is of tremendous concern to me as a mother and a grandmother. I am hearing so much about this from my constituents, and they want to know some answers, they want to know how you all are addressing this. And I will tell you, when I hear about counties in California that have lower immunization rates than the Sudan and Chad, this is something that is of concern to me.    I am a Rotarian. We have invested decades into eliminating and wiping out polio, and then to hear this about the U.S., I am concerned.    We know the measles outbreak started in California. It has affected over 100 people in 14 States, and that most of those people were not vaccinated. So we do want to veer off and ask you some questions in this realm today.    And I yield back.</t>
   </si>
   <si>
@@ -106,9 +91,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman, and thanks for holding this hearing today.    I have to tell Ms. DeGette that this is actually the first time that I have been a member of the O&amp;I Subcommittee, so I am very happy.</t>
   </si>
   <si>
@@ -127,9 +109,6 @@
     <t>412195</t>
   </si>
   <si>
-    <t>Kathy Castor</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Castor. Well, thank you for yielding the time, and good morning. Thank you, Mr. Chairman and Ranking Member DeGette, for holding this important hearing to better understand the flu and the flu vaccine.    Vaccines are incredibly valuable tools to protect and improve the health of all of our neighbors. And as we have seen with the recent and surprising measles outbreak, vaccines protect lives. According to reports, there have been 102 cases of measles reported across 14 States, and those who do not vaccinate their children are putting them at risk, and they are putting others at risk. Vaccines are safe and effective.    I want to give particular thanks to Dr. Schuchat from the Centers for Disease Control for traveling to the Tampa Bay area a few months back to raise awareness with another important vaccine, the anti-cancer vaccine of HPV. Thank you for meeting with our public health students, and anti-cancer advocates to explain. See, Florida had one of the lowest rates of HPV vaccines, and we can save lives and prevent cancer if people will understand the importance of the HPV vaccine. Your visit was a great boost to our efforts to prevent cancer through the HPV vaccine, so thank you again for the work you do to educate the public on vaccinations.    You know, we are so fortunate to live in America where we have studied and investigated and tested all of these vaccines to ensure that they are safe and effective. So thank you to all the panelists for all the work you do, and I look forward to your testimony.    I yield back.</t>
   </si>
   <si>
@@ -142,36 +121,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Schuchat</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Schuchat. Good morning, Mr. Chairman, and members of committee. I am Dr. Anne Schuchat, Director of the National Center for Immunization and Respiratory Diseases at the Centers for Disease Control and Prevention.    Influenza virus is a formidable adversary. Influenza's propensity to change presents unique challenges. New flu vaccines must be developed each year based on the predictions of which viruses are likely to be most common during the next season. Vaccine development is complex and time-consuming, typically requiring vaccine candidates that grow well in eggs and provide immunity in humans. And while we tackle seasonal flu, we must conduct constant global surveillance and prepare for the emergence of dramatically changed or shifted influenza virus that could trigger the next pandemic.    Over the past decade, we have made significant improvements in our ability to detect, prevent, and respond to influenza, yet, despite our improvements, the current severe influenza season has been difficult. My colleagues and I represent agencies that work together to respond to seasonal and pandemic flu. The NIH supports research on vaccines, diagnostic tools, and antiviral drugs for seasonal and pandemic influenza. The Food and Drug Administration regulates influenza vaccines, convening public health and influenza disease experts to recommend which influenza virus strains should be included in FDA-licensed vaccines.    The Biomedical Advanced Research and Development Authority, BARDA, supports advanced research, development, and procurement of innovative medical countermeasures to address manmade and emerging infectious diseases, including influenza pandemics. And at CDC, we support surveillance and diagnostic capacity to rapidly detect, prevent, and respond to annual influenza epidemics, and novel and pandemic influenza threats.    Our CDC systems provide the scientific basis for global vaccine virus selection for seasonal flu, vaccine as well as for pandemic vaccine stockpiling. We monitor for genetic changes in the flu virus, and identify how these changes affect disease transmission and severity. We build public awareness and provide our knowledge about prevention and early treatment, and support public sector delivery of routine and emergency immunizations.    The 2014/15 influenza season has proven a particularly bad season. The virus that is predominant, H3N2, is associated with more severe disease. The vaccine we are using is not well matched to circulating H3N2 strains. Antivirals can be important aids in some patients, but clinicians are underutilizing them.    How do we find ourselves with vaccine that isn't well matched to the circulating H3N2 viruses? When the 2014/15 flu vaccine strains were selected last February, the drifted virus we are seeing now was not yet detected. A small number of these drifted viruses were first detected in March 2014, and CDC continued to monitor them throughout the summer, looking for genetic patterns and geographic spread.    In September 2014, when we began promoting seasonal vaccination, about \\1/2\\ of the H3N2 viruses circulating were like the vaccine component. When the influenza season took off at the end of November, only \\1/3\\ of the H3N2 viruses CDC detected were like the vaccine component. Our early vaccine effectiveness estimate found people vaccinated had about 23 percent lower risk of influenza infection requiring a medical visit. While this is lower than we usually see, the vaccine is providing some protection.    Influenza viruses follow their own schedules, not ours. New strains can emerge at any time. Some appear and die out, and others persist and spread. Our actions are proportional to risks. We work year-round to detect and characterize viruses of concern that circulate globally, monitor their emergence and geographic spread, and develop viable vaccine candidates for drift viruses as they occur. When we detected relatively small numbers of the drifted H3N2 strain late last spring, CDC began preparing candidate vaccine virus strains.    As the Nation's public health agency, we are committed to provide the information people need to protect their patients' and families' health, and to be transparent in our assessments and the evidence base that supports our recommendations.    As a physician and a public health professional, I too wish we could guarantee better protection each year, yet, we have made significant advances on several fronts. Our surveillance network is characterizing more viruses with improved methods. Significantly more Americans get flu vaccine each year, and information on viruses, disease, and vaccination is released more rapidly.    In closing, this flu season has caused more suffering and serious disease than many previous years, and there will be more challenging seasons ahead, but collaboration across the agencies, and with our public and private partners, holds promise for the future, including progress toward development of universal influenza vaccines, since better, broader, and long-lasting protection could transform our approach to this challenging virus.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you.    Dr. Midthun, you are recognized for 5 minutes. Thank you. Make sure the microphone is turned on and it is close to you. Thank you. You still have to turn it on. Press the--there you go.</t>
   </si>
   <si>
-    <t>Midthun</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Midthun. Thank you. Mr. Chairman and members of the subcommittee, I am Dr. Karen Midthun, Director of the Center for Biologics Evaluation and Research, the center within FDA that is responsible for regulating vaccines. Thank you for the opportunity to be here today to discuss our role in a highly collaborative, multi-partnered effort in preventing influenza through vaccination in the U.S.    Influenza viruses continually undergo changes in their genetic makeup, and the resulting proteins that interact with the immune system. Due to these continuous changes, the composition of influenza vaccines must be periodically updated so that they are effective against what are anticipated to be the predominant circulating viruses in the upcoming influenza season.    The strains of virus in the vaccine include 2 distinct subtypes of influenza A, H1N1, and H3N2, and 1 or 2 influenza B strains, depending upon whether the vaccine is trivalent or quadrivalent. To identify virus strains likely to cause illness during the upcoming season, the World Health Organization convenes influenza and public health experts to study recently circulating influenza viruses from around the world, and recent global disease patterns. After careful evaluation of the assessment, WHO makes recommendations on the composition of the influenza vaccines, usually in late February for the upcoming season in the Northern Hemisphere, and in September for the upcoming season in the Southern Hemisphere. The recommendations must be made months in advance because of the time required for manufacturing, testing, lot release, and distribution of a very large number of vaccine doses.    Each year, following the WHO recommendations, FDA convenes its vaccines and related biological products advisory committee, typically in late February or early March. The committee considers the WHO recommendations and reviews information regarding viruses that caused illness in the previous year, how these viruses are changing, and disease trends. Based on the data available at the time of the meeting, the committee makes recommendation for the composition of the influenza vaccines licensed by FDA for the upcoming season in the U.S. Once the strains are selected, candidate influenza viruses that are adapted for high growth are generated and accepted by WHO collaborating centers, and are provided to manufacturers who generate the seed viruses for manufacturing vaccines. The manufacturing demands are tremendous and the timelines are tight. No other vaccine is produced, FDA approved and distributed every year across the U.S. within a six-month time frame.    This season, more than 150 million doses were manufactured. Given the yearly need for a new vaccine, there is limited flexibility in the timelines of vaccine manufacturing and availability. And parallel with vaccine manufacturing, FDA develops and calibrates reagents which are used by both FDA and the manufacturers to test vaccines for potency and identity before FDA approves the new formulation for distribution. Manufacturers submit their vaccine testing results, along with samples from each lot, to FDA for lot release. As FDA releases lots, the manufacturers can make these lots commercially available throughout the U.S.    In February 2014, when the strain selection recommendation for the current influenza season was made, it reflected the circulating viruses. The drifted H3N2 viruses were first detected in March 2014 and were uncommon. Over the ensuing months, the drifted strains gradually increased. By late September, when WHO made its recommendations for the 2015 Southern Hemisphere influenza vaccine, the drifted H3N2 strains were common, prompting a recommended change in the upcoming Southern Hemisphere vaccine composition. Because of the manufacturing time required, there was not enough time to make a similar change for the current Northern Hemisphere influenza season. The drifted strains have caused the majority of influenza cases this season, however, vaccination is still important to prevent disease and minimize the public health burden of influenza. Influenza vaccines contain three or four influenza viruses, so even when there is a less than ideal match or lower effectiveness against one virus, the vaccine may protect against the other viruses.    FDA has made progress in our preparedness efforts and collaboration with BARDA, CDC, NIH, manufacturers, and other stakeholders, and we thank Congress for your support of these efforts. New influenza vaccines have been licensed, including cell-based, recombinant protein vaccines and quadrivalent vaccines. To enhance pandemic preparedness, FDA licensed an adjuvanted H5N1 avian influenza vaccine, and has worked with U.S. Government partners and manufacturers to facilitate the development of candidate vaccines directed at H7N9 avian influenza. Surveillance efforts are more extensive than ever before, and offer the potential for early detection of emerging viruses. The number of candidate vaccine virus strains available to manufacturers has greatly increased over the last few years, providing them with more options to increase vaccine yields. We continue efforts with our Government partners to develop high-yield candidate vaccine strains, as well as more modern, faster testing methods for vaccine potency and sterility. To further address the challenges presented by the constantly changing nature of influenza viruses, scientists and Government laboratories, academic institutions, vaccine manufacturers, are all working to develop new generation vaccines that might provide longer-lasting and broader protection against influenza viruses, including drifted strains. Although these development efforts are still in early stages, some may have the potential to increase and broaden protection against influenza.    FDA will continue to work with its Government partners, manufacturers, and other stakeholders to facilitate development of new vaccines, and identify methods that have the potential to speed the manufacturing process for existing vaccines. Our goal is to better protect the American public against influenza.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you.    Now, Dr. Robinson, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Robinson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Robinson. Good morning, Chairman Murphy, Ranking Member DeGette, and distinguished members of the subcommittee. Thank you for the opportunity to speak with you today. I am Dr. Robin Robinson, Director of the Biomedical Advanced Research and Development Authority, and Deputy Assistant Secretary for Preparedness and Response, as well as a former developer of influenza vaccines in industry.    BARDA is the Federal Government agency mandated to support advanced research and development, and procurement of novel and innovative medical countermeasures such as vaccines, therapeutics, diagnostics, and medical devices for the entire Nation to address the medical consequences of manmade and naturally occurring threats like the H1N1 pandemic, the 2013 H7N9 influenza outbreak, and the current Ebola epidemic.    Pandemic influenza is one of our primary concerns. We understand that preparedness for pandemic influenza is directly tied to seasonal influenza. Medical countermeasures for seasonal influenza underpin the vaccines, antivirals, and diagnostics used for pandemic influenza. BARDA has invested in the advanced development of medical countermeasures that have utility for both seasonal and pandemic influenza preparedness.    BARDA transitions medical countermeasures from early research and development at NIH, into advanced development toward FDA approval and potential procurement. BARDA has funded and successfully managed the advanced development of more than 60 medical countermeasures for pandemic influenza. More than 20 of these medical countermeasures for influenza have been FDA approved, with 6 receiving approval in the last 3 years, as Dr. Midthun indicated. Additionally, BARDA developed and procured vaccines and antivirals used in the 2009 H1N1 pandemic, and stockpiled vaccines for preparedness against H5N1 and H7N9 viruses. BARDA, through partnerships with NIH, CDC, FDA, industry, and academia, has met and overcome many but not all of the challenges inherent to making medical countermeasures associated with seasonal and pandemic influenza. Specifically, BARDA, with our partners, has made major progress in the following pandemic areas.    First, modernization of influenza vaccine manufacturing through the development and licensure of new cell- and recombinant-based influenza vaccines, and antigen-sparing pandemic vaccines with adjuvants towards meeting our strategic goal of more and better influenza vaccines sooner. These new vaccines were part of our successful H7N9 response in 2013.    Second, shortening influenza vaccine manufacturing time by weeks, effected through the Influenza Vaccine Manufacturing Improvement initiative, as recommended by PCAST, to optimize the generation of high-yielding vaccine seed strains, and alternative potency and sterility assays. Many of these improvements, such as biosynthetic technology, were employed during the H7N9 vaccine response in 2013, which was the fastest on record.    Third, establishment and maintenance of pre-pandemic influenza vaccine stockpiles for H5 and H7N9 viruses that may be used to immunize tens of millions of persons at the onset of an influenza pandemic with these viruses.    Fourth, and last, multi-fold expansion of domestic pandemic influenza vaccine production capacity, afforded by retrofitting of older manufacturing plants, building new state-of-the-art manufacturing facilities for making 21st century influenza vaccine, and establishing three centers for innovation and advanced development and manufacturing, with rapid, nimble, and flexible manufacturing capabilities through public-private partnerships with industry.    The new national infrastructure responded in 2013 to the H7N9 outbreaks, and today, in the Ebola epidemic. Despite these significant accomplishments, our pandemic preparedness work is not over. Making a more effective influenza vaccine remains a significant scientific challenge. Indeed, progress towards more effective influenza vaccines has been noted in recent years, but much more is needed.    Going forward, there is reason for hope that more effective influenza vaccines may be within our grasp. The discovery of new influenza viral targets within the last 4 years has renewed interests and efforts to develop new universal influenza vaccine candidates.    Developing more effective pandemic influenza vaccines is one of our top priorities, and BARDA will support new methods based on evolutionary biology that may help forecasting and selection of new seasonal and pandemic influenza vaccine strains.    In parallel, we are launching this month an initiative to support advanced development of new, more effective influenza vaccine candidates that may elicit greater, broader, longer immunity in all populations against divergent influenza virus variants, and that may serve as primers for pandemic influenza vaccines.    In conclusion, influenza viruses with pandemic potential continue to evolve and change, infect animals and man, and pose significant threats to global and domestic public health. This year's limited seasonal influenza vaccine effectiveness, and the arrival of the first human case of H7N9 virus in North America underscore our urgent need to complete this mission. To be better prepared, our Nation must continue to invest in domestic pandemic preparedness, and work with key global partners.    I thank you for this opportunity to discuss how we can be better prepared for seasonal and pandemic influenza, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Dr. Robinson.    Dr. Fauci, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Fauci</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Fauci. Mr. Chairman, Ranking Member DeGette, members of the committee, I appreciate the opportunity to discuss with you today very briefly the role of the National Institute of Allergy and Infectious Diseases in research addressing both seasonal and pandemic influenza.    [Slide shown.]    As shown on this slide, the NIH research agenda is really based on the traditional approach that the NIH has taken with all diseases; namely, fundamental basic research, clinical research, and field research, the provision of research resources both to the academic community, as well as to the biotech and pharmaceutical companies. The endgame is to ultimately produce interventions in the form of diagnostics, therapeutics, and vaccines. You have heard about the diagnostics and therapeutics. We can talk about them a little bit later. I want to focus the remainder of my remarks on a subject of obvious importance; namely, the development of influenza vaccines.    [Slide shown.]    Traditionally, the classic what we call platforms, or the way you develop the vaccine, have been based on growing the virus itself either in eggs, which is somewhat cumbersome, or more recently using it in cell lines, which are a bit more predictable. You either have a live attenuated vaccine or an inactivated vaccine, and that has been the traditional approach towards vaccines. It is cumbersome, it takes a long period of time because you have to grow the virus.    [Slide shown.]    Our researchers, both at the NIH and our grantees and contractors, over the last several years have been attempting, with some success, to make a conversion to what we call a recombinant DNA technology, molecular-based approach that would obviate the need to actually continue to grow the virus to make a vaccine. Several of these are illustrated on this slide. We don't have time to go into each and every one of them, but they are particularly suited to develop a vaccine that we are all hoping for, and that Dr. Burgess mentioned in his 5-minute remarks, and that is a universal influenza vaccine.    [Slide shown.]    This is the cover of a Nature Medicine article that I wrote with my colleague, Dr. Gary Nabel, the former director of the Vaccine Research Center, namely, how we can induce what I called unnatural immunity; namely, immunity that a normal vaccine induction or the virus itself doesn't induce, and that is broad protection against subsequent exposures to different types of influenzas that have a tendency to drift over a period of years, and sometimes to even shift, which gives us a pandemic.    [Slide shown.]    Now, the reason we can do this, and I just want to point out on this slide, on the lower right is a blown-up schematic of the influenza virus. The proteins that coat the outside are referred to as hemagglutinin, and that is where we get the H for H3, H2, or H1. It is a designation of a major protein. The other one is N for neuraminidase. But notice how those proteins are clustered on the surface of the virus, so that what the immune system sees generally is just the top, what we refer to as the head or the bulb of that protein.    [Slide shown.]    If you look at this slide, that head is where most of the antibodies that protect you and me against influenza are made. That is the good news. The sobering news is that is a variable region, which tends to change as influenzas drift from season to season and change an awful lot when it goes to a pandemic.    If you look at the little stem, the thin part of that protein, that the immune system doesn't see very well, interestingly, we found out several years ago that that is the part--that is what we called highly conserved. It doesn't change from necessarily a Texas H3N2 to a different type, a Singapore or a variety of others. They stay the same, which means that if you can induce an immune response against that unchangeable one, you might be able to get what we call a broader reactivity.    [Slide shown.]    And over the last several years, we have made considerable progress as shown on this slide here, where a number of candidates have used molecular techniques to essentially show the body predominantly the part of that protein that doesn't change. And there are a number of ways of doing that. Instead of giving the body the entire virus, either killed or attenuated, by molecular techniques, you show the body only the part that you want it to respond to, unencumbered by the physical structures that don't allow the body to see it. And we now have done this in several candidates--in mice, in ferrets, and what we call phase one studies in humans--which means we know it is safe, we know it can induce the kind of response that is more broad. In collaboration with BARDA, we are now starting to produce that to go into larger trials. And as Dr. Burgess said, we are not there yet, but we are clearly many steps further than what we were the last time I testified before this committee.    So I will stop there and be happy to answer any questions.</t>
   </si>
   <si>
@@ -487,9 +454,6 @@
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman. Just a quick observation on this--what I have heard and read in your testimony and done a little research is, this whole process of designating which vaccine we are going to come up with in September just seems archaic. In fact, it seems more of a game of chance and probability. And by virtue of us continuing this process, erroneously now with this mismatch, we have 50,000 Americans who are going to die this year. Fifty thousand Americans. That is more than died in combat in Vietnam, over a decade of that warfare. And they are going to die because of a game of chance and probability.    I am just astounded by that. I wonder what better techniques can we use to predict ahead. And that leads me then to the second question perhaps, or maybe associated with that, is that the high-dose vaccine has been found to be 24 percent more beneficial to senior citizens, and you have a meeting coming up late in February and it is not on the agenda as a possibility for September. Could one of you explain just briefly why that is not on the agenda if it has been proven to be helpful for senior citizens?</t>
   </si>
   <si>
@@ -646,9 +610,6 @@
     <t>400653</t>
   </si>
   <si>
-    <t>Al Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. Thank our panel for being here.    Data from the National Immunization Survey found that fewer than half of children and adults are vaccinated by November of this current flu season. My numbers said 40.3 percent, but, doctor, you said 46 percent. Forty-six percent of the people and 6 months or older received the flu vaccine. These numbers seem similar to what we have seen in the last few years.    I wanted to hear why these vaccination rates continue to be so low and what we can do to improve it, although I have to admit, the recent news that it is only 20 percent--23 percent effective, and those of us who are much older it may only be 12 percent, that would probably tell people not to get it. But somehow along the way, we need to do it, and encourage much more than 46 percent to be able to get that. The data showed that nearly 60 percent of the people had not taken advantage of it. Is that accurate?</t>
   </si>
   <si>
@@ -709,9 +670,6 @@
     <t>412485</t>
   </si>
   <si>
-    <t>H. Morgan Griffith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you, Mr. Chairman.    Let me try to get some blanks filled in here. I don't have the answers. The meeting took place with WHO in CDC and FDA and others in February. In March, we know that there was a drift that was picked up of about 10 percent, is that correct?</t>
   </si>
   <si>
@@ -868,9 +826,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair. And welcome to the panel.    There has been much discussion here today about parents and the advice they get about having their children vaccinated or not vaccinated. I would like to ask it from yet another perspective. Yesterday, a United States senator asserted that routine vaccinations could cause, and I will quote, ``walking-talking normal children to wind up with profound mental disorders.''    And so my request of the panel is a simple yes-or-no response. Is there any shred of credible evidence that shows that this, in fact, is the case? Dr. Schuchat?</t>
   </si>
   <si>
@@ -949,9 +904,6 @@
     <t>412427</t>
   </si>
   <si>
-    <t>Larry Bucshon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bucshon. Thank you, Mr. Chairman. First of all, I would like to associate myself with the unanimous comments of our expert panel in recommending that parents get their children immunized to prevent childhood diseases. All my children are immunized.    Based on the testimony we have heard today, it seems like we could have had a monovalent vaccine available by maybe December, and if that is true, Dr. Schuchat, do you lack the authority to make that happen in that way, because through the testimony, I think a lot of members have asked what can we do to help, but for us, for Congress, to help, we have to have a specific thing to help with. So is there new authority or any other authority that would be helpful to make this happen?</t>
   </si>
   <si>
@@ -1000,9 +952,6 @@
     <t>400360</t>
   </si>
   <si>
-    <t>Janice D. Schakowsky</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Schakowsky. I was here earlier.</t>
   </si>
   <si>
@@ -1060,9 +1009,6 @@
     <t>412480</t>
   </si>
   <si>
-    <t>Bill Flores</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Flores. Thank you, Mr. Chairman. I also want to thank the panel, particularly for your positive comments regarding the benefits of having children vaccinated for measles. I have an extended family member who has not done that for her children yet, and it just baffles me why she can't do that. And so I hope she is hearing this today, that she heard your comments, and that she will do so.    I want to talk about the weakness in the strain selection process, and talk about the opportunities to mitigate that weakness. And I want to focus my questions to you, Dr. Robinson, because BARDA is a tool, I think, that we have to do this.    And so my first question is this. Is BARDA funding any projects or initiatives to develop two things: one, better testing technologies, or two, better approaches for making the vaccine candidates?</t>
   </si>
   <si>
@@ -1126,9 +1072,6 @@
     <t>412221</t>
   </si>
   <si>
-    <t>Yvette D. Clarke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clarke. Thank you very much, Mr. Chairman.    Being the low one on the totem pole, oftentimes, it comes with the territory.    Let me welcome our panelists as well, and pick up on some of the line of questioning that my colleague Mr. Tonko raised with respect to research.    So, Dr. Fauci, your testimony discussed the potential for a universal flu vaccine that could provide protection against numerous strains of the flu over several seasons. What can you tell us about the research on this vaccine?</t>
   </si>
   <si>
@@ -1186,9 +1129,6 @@
     <t>412539</t>
   </si>
   <si>
-    <t>Susan W. Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman. I do want to thank all of the witnesses for your work with respect to the public health and safety of our citizens. On Homeland Security, I chaired the subcommittee on emergency preparedness response and communications, and this is something that we know everyone is passionate about. I think, obviously, when we have an epidemic the way we have right now, the public pays a lot more attention to it, but I think the public also expects us to get it right. And the public is expecting us to leave no stone unturned and to continue to ask the questions and figure out how can we do it better, how can we do it faster, what mistakes have we learned from in the past, and what do we do to keep our country safe.    This year is a much higher death toll, as you have said. In Indiana, there were 72 deaths statewide. The year before, 70. We have already had 108 deaths in Indiana, and it is just the end of January, and the flu season, as I understand it, goes often in through May, so we have a lot that we are very, very concerned about. I spoke with the head of our Marion County, which is Indianapolis' Public Health Department, and she has indicated that the flu has gotten so severe in Indianapolis that she is barring anyone under the age of 18 from visiting hospitals. So if you are 15 years old and your mom is in the hospital, you can't visit your mom. So we have reached, just to let you know, as I am sure you know, and you are very focused on this, but these types of precautions are obviously being taken for the safety of the patients, but we also know, as we have heard, vulnerable, you know, whether they are children or seniors, are so vulnerable. But yet one of the things she also shared with me, and she was explaining the ag. culture technology that we use, and it takes a long time, but yet she shared the new cell mediated technology that you have mentioned in production is faster, but yet it is not widely used. And so I would like to explore why.    You mentioned a cell-based facility in North Carolina. Can we please talk a bit more about if these technologies are out there, why are they not being more widely used? And I don't know if, Dr. Schuchat, you want to start, and Dr. Robinson.</t>
   </si>
   <si>
@@ -1237,9 +1177,6 @@
     <t>412568</t>
   </si>
   <si>
-    <t>Markwayne Mullin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman.    Dr. Robinson, my State of Oklahoma has been hit particularly hard this year. According to Walgreens, Oklahoma City is the number one place for prescriptions to be issued out for Tamiflu. Tulsa is number five. I think we have had somewhere like 50 deaths, and in the neighborhood of 1,300 individuals being hospitalized. My family was hit real hard this year. Out of my five kids, four got it. My fourth daughter, who is 6, received actually two different strains of the flu. My wife and all my family missed the swearing in because of the flu. And now it is kind of ironic that I am sitting up here talking about this.    Just some follow-up questions. My understanding is, part of the challenge of being able to respond to the mismatch vaccine is the burden of regulations, but underneath declaration of maybe an emergency, those regulatory burdens change. Is that correct?</t>
   </si>
   <si>
@@ -1357,9 +1294,6 @@
     <t>412563</t>
   </si>
   <si>
-    <t>Chris Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman.    I will be as quick as I can to get the information really directed more at Dr. Fauci and Dr. Schuchat.    And I appreciate your issue of the jump on swine flu, the same thing we were worried about with the bird flu, that didn't happen. That is the good news of RNA viruses, they don't jump off to--but if they do, it can be devastating. So my question is really on the universal vaccine discussion. And I don't think it has been made clear here. We have DNA viruses and we have RNA viruses. And when we talked about the vaccine for HPV, the vaccine for herpes, smallpox, chickenpox, those are all DNA vaccines. And it is relatively straightforward to get a vaccine for a DNA-based virus. Then you have your RNA viruses; HIV, Ebola, West Nile, SARS, influenza. They mutate a lot, that is what they do, but they don't jump species much.    So my question is this: Since we are talking about an RNA virus, so you can't compare influenza with HPV, you can't compare influenza with herpes, and I don't think that was made clear, but now that we are talking about an RNA-based virus, I guess my question is this, because they mutate, drift so often, that is the insidious nature of RNA viruses, which is why the answer to a lot of the questions coming here is more because they do mutate, that is the basis of that virus. So how is it that since measles is an RNA virus, polio is an RNA virus, rubella is an RNA virus, and so is mumps, so you have mumps, measles, rubella, and polio on the one hand, RNA, and we have vaccines for them, what is the difference in the reason we don't have vaccines for things like influenza?</t>
   </si>
   <si>
@@ -1463,9 +1397,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Mr. Collins.    And now as a tradition of this committee, if another member of the committee wishes to be part of this, we will welcome back a former member of the subcommittee for this special visit, Mrs. Ellmers of North Carolina. You are recognized for 5 minutes.</t>
-  </si>
-  <si>
-    <t>Ellmers</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Ellmers. Thank you, Mr. Chairman, and thank you to our ranking member also, for allowing me to be part of this important subcommittee hearing on this very timely issue. And to our panel, thank you for being here today.    And I just want to point out a couple of things. One, in October, looking at this issue and knowing the importance of it moving forward, especially when it comes to vaccine production, I had the honor of hosting a roundtable discussion in the Research Triangle. Dr. Midthun and Dr. Robinson, thank you again for participating in that very important discussion. We learned a lot from that. As we all know, Chairman Upton is leading the 21st Century Cures Initiative, and the vaccine space fits right in there. And I am working on very important legislation right now to actually bolster vaccine production and bring vaccines to market. As we know, it is very, very important. And I have also the honor of having the facility in Holly Springs, North Carolina, which has been referred to already, which will be addressing the issue of seasonal and pandemic vaccine production, using the cell culture technology. Very important to my district. And I also want to point out, and I think this is something that we need to look at into the future when we are trying to solve these problems. This was a public-private partnership between Novartis, HHS, and BARDA. So, again, thank you all for your input today. This is a very, very difficult situation, but I believe that we can get ahead of it and we can move forward, and we can identify ways that we can improve upon this process.    Dr. Schuchat, I have a question for you. In the legislation that I am working on right now, my bill, we create mechanisms to help increase the communication and sharing between the CDC and industry, and ways that we can get that information out to impact public health. In your opinion, how can the CDC work more closely in partnership with industry to reduce the risk and uncertainty of investing in the novel vaccines?</t>
@@ -1945,11 +1876,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1971,11 +1900,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1995,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2023,11 +1948,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2047,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2073,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2099,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2127,11 +2044,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2151,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2177,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2203,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2231,11 +2140,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2255,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2281,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2309,11 +2212,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2335,11 +2236,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2359,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2387,11 +2284,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2411,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2439,11 +2332,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2463,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2491,11 +2380,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2515,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
         <v>41</v>
-      </c>
-      <c r="G24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2543,11 +2428,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2567,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2595,11 +2476,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2619,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2647,11 +2524,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2671,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2699,11 +2572,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2723,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2751,11 +2620,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2775,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
         <v>51</v>
-      </c>
-      <c r="H34" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2803,11 +2668,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2827,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2855,11 +2716,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2879,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2907,11 +2764,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2931,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2959,11 +2812,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2983,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3011,11 +2860,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3035,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3063,11 +2908,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3087,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3115,11 +2956,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3139,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3167,11 +3004,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3191,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3219,11 +3052,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3243,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G52" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3271,11 +3100,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3295,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3323,11 +3148,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3347,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3373,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3399,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3425,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
-      </c>
-      <c r="G59" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3451,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3477,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
-      </c>
-      <c r="G61" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3503,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3529,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3555,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3581,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
-      </c>
-      <c r="G65" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3607,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3633,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
-      </c>
-      <c r="G67" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3659,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3685,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
-      </c>
-      <c r="G69" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3711,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3737,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
-      </c>
-      <c r="G71" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3763,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3789,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
-      </c>
-      <c r="G73" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3815,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3841,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
-      </c>
-      <c r="G75" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3867,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3893,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
-      </c>
-      <c r="G77" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3919,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3945,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
-      </c>
-      <c r="G79" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3971,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3997,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
-      </c>
-      <c r="G81" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4023,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4049,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
-      </c>
-      <c r="G83" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4075,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4101,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
-      </c>
-      <c r="G85" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4127,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4153,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
-      </c>
-      <c r="G87" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4179,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4205,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
-      </c>
-      <c r="G89" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4231,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4257,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
-      </c>
-      <c r="G91" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4283,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4309,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
-      </c>
-      <c r="G93" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4335,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4361,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
-      </c>
-      <c r="G95" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4387,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4413,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
-      </c>
-      <c r="G97" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4439,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4465,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
-      </c>
-      <c r="G99" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4491,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4517,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
-      </c>
-      <c r="G101" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4543,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4569,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
-      </c>
-      <c r="G103" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4595,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4621,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
-      </c>
-      <c r="G105" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4647,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>15</v>
-      </c>
-      <c r="G106" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4673,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
-      </c>
-      <c r="G107" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4699,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>15</v>
-      </c>
-      <c r="G108" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4725,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
-      </c>
-      <c r="G109" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4751,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>15</v>
-      </c>
-      <c r="G110" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4777,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
-      </c>
-      <c r="G111" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4803,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>15</v>
-      </c>
-      <c r="G112" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4829,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
-      </c>
-      <c r="G113" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4855,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
-      </c>
-      <c r="G114" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4881,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
-      </c>
-      <c r="G115" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4907,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4935,11 +4636,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4959,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>25</v>
-      </c>
-      <c r="G118" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4985,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
-      </c>
-      <c r="G119" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5011,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>25</v>
-      </c>
-      <c r="G120" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5037,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
-      </c>
-      <c r="G121" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5063,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>25</v>
-      </c>
-      <c r="G122" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5089,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
-      </c>
-      <c r="G123" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5115,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>25</v>
-      </c>
-      <c r="G124" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5141,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
-      </c>
-      <c r="G125" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5167,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>25</v>
-      </c>
-      <c r="G126" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5195,11 +4876,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5219,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
-      </c>
-      <c r="G128" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5245,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
-      </c>
-      <c r="G129" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5271,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
-      </c>
-      <c r="G130" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5297,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
-      </c>
-      <c r="G131" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5323,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G132" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5349,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
-      </c>
-      <c r="G133" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5375,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
-      </c>
-      <c r="G134" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5401,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
-      </c>
-      <c r="G135" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5429,11 +5092,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5453,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G137" t="s">
-        <v>157</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5479,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
-      </c>
-      <c r="G138" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5505,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>156</v>
-      </c>
-      <c r="G139" t="s">
-        <v>157</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5531,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
-      </c>
-      <c r="G140" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5557,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>156</v>
-      </c>
-      <c r="G141" t="s">
-        <v>157</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5583,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
-      </c>
-      <c r="G142" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5609,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>156</v>
-      </c>
-      <c r="G143" t="s">
-        <v>157</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5635,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
-      </c>
-      <c r="G144" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5661,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>156</v>
-      </c>
-      <c r="G145" t="s">
-        <v>157</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5687,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
-      </c>
-      <c r="G146" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5713,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
+        <v>145</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
         <v>156</v>
-      </c>
-      <c r="G147" t="s">
-        <v>157</v>
-      </c>
-      <c r="H147" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5739,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
-      </c>
-      <c r="G148" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5765,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>156</v>
-      </c>
-      <c r="G149" t="s">
-        <v>157</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5791,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
-      </c>
-      <c r="G150" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5817,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>156</v>
-      </c>
-      <c r="G151" t="s">
-        <v>157</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5843,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
-      </c>
-      <c r="G152" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5869,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>156</v>
-      </c>
-      <c r="G153" t="s">
-        <v>157</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5895,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
-      </c>
-      <c r="G154" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5921,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>156</v>
-      </c>
-      <c r="G155" t="s">
-        <v>157</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5949,11 +5572,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5973,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
-      </c>
-      <c r="G157" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5999,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
-      </c>
-      <c r="G158" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6025,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
-      </c>
-      <c r="G159" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6051,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
-      </c>
-      <c r="G160" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6077,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
-      </c>
-      <c r="G161" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6103,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
-      </c>
-      <c r="G162" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6129,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
-      </c>
-      <c r="G163" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6155,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
-      </c>
-      <c r="G164" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6181,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
-      </c>
-      <c r="G165" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6207,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
-      </c>
-      <c r="G166" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6233,13 +5834,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
-      </c>
-      <c r="G167" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6259,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
-      </c>
-      <c r="G168" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6285,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>41</v>
-      </c>
-      <c r="G169" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6311,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
-      </c>
-      <c r="G170" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6339,11 +5932,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6363,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>22</v>
-      </c>
-      <c r="G172" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6389,13 +5978,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
-      </c>
-      <c r="G173" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6415,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>22</v>
-      </c>
-      <c r="G174" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6441,13 +6026,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
-      </c>
-      <c r="G175" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6467,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>22</v>
-      </c>
-      <c r="G176" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6493,13 +6074,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
-      </c>
-      <c r="G177" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6519,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>22</v>
-      </c>
-      <c r="G178" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6545,13 +6122,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
-      </c>
-      <c r="G179" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6571,13 +6146,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>22</v>
-      </c>
-      <c r="G180" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6597,13 +6170,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
-      </c>
-      <c r="G181" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6623,13 +6194,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>22</v>
-      </c>
-      <c r="G182" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6649,13 +6218,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
-      </c>
-      <c r="G183" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6675,13 +6242,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>22</v>
-      </c>
-      <c r="G184" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6701,13 +6266,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
-      </c>
-      <c r="G185" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6727,13 +6290,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>22</v>
-      </c>
-      <c r="G186" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6753,13 +6314,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>41</v>
-      </c>
-      <c r="G187" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6779,13 +6338,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>22</v>
-      </c>
-      <c r="G188" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6807,11 +6364,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>12</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6831,13 +6386,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>209</v>
-      </c>
-      <c r="G190" t="s">
-        <v>210</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6857,13 +6410,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
-      </c>
-      <c r="G191" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6883,13 +6434,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>209</v>
-      </c>
-      <c r="G192" t="s">
-        <v>210</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6909,13 +6458,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
-      </c>
-      <c r="G193" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6935,13 +6482,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>209</v>
-      </c>
-      <c r="G194" t="s">
-        <v>210</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6961,13 +6506,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
-      </c>
-      <c r="G195" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6987,13 +6530,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>209</v>
-      </c>
-      <c r="G196" t="s">
-        <v>210</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7013,13 +6554,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
-      </c>
-      <c r="G197" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7039,13 +6578,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>209</v>
-      </c>
-      <c r="G198" t="s">
-        <v>210</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7067,11 +6604,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7091,13 +6626,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>209</v>
-      </c>
-      <c r="G200" t="s">
-        <v>210</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7117,13 +6650,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
-      </c>
-      <c r="G201" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7143,13 +6674,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>209</v>
-      </c>
-      <c r="G202" t="s">
+        <v>197</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
         <v>210</v>
-      </c>
-      <c r="H202" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7169,13 +6698,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
-      </c>
-      <c r="G203" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7195,13 +6722,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>209</v>
-      </c>
-      <c r="G204" t="s">
-        <v>210</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7221,13 +6746,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>41</v>
-      </c>
-      <c r="G205" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7247,13 +6770,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>209</v>
-      </c>
-      <c r="G206" t="s">
-        <v>210</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7273,13 +6794,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>41</v>
-      </c>
-      <c r="G207" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7301,11 +6820,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>12</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7325,13 +6842,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>230</v>
-      </c>
-      <c r="G209" t="s">
-        <v>231</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7351,13 +6866,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>41</v>
-      </c>
-      <c r="G210" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7377,13 +6890,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>230</v>
-      </c>
-      <c r="G211" t="s">
-        <v>231</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7403,13 +6914,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
-      </c>
-      <c r="G212" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7429,13 +6938,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>230</v>
-      </c>
-      <c r="G213" t="s">
-        <v>231</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7455,13 +6962,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
-      </c>
-      <c r="G214" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7481,13 +6986,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>230</v>
-      </c>
-      <c r="G215" t="s">
-        <v>231</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7507,13 +7010,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>41</v>
-      </c>
-      <c r="G216" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7533,13 +7034,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>230</v>
-      </c>
-      <c r="G217" t="s">
-        <v>231</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7559,13 +7058,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>41</v>
-      </c>
-      <c r="G218" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7585,13 +7082,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>230</v>
-      </c>
-      <c r="G219" t="s">
-        <v>231</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7611,13 +7106,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
-      </c>
-      <c r="G220" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7637,13 +7130,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
+        <v>217</v>
+      </c>
+      <c r="G221" t="s"/>
+      <c r="H221" t="s">
         <v>230</v>
-      </c>
-      <c r="G221" t="s">
-        <v>231</v>
-      </c>
-      <c r="H221" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7663,13 +7154,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
-      </c>
-      <c r="G222" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7689,13 +7178,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>230</v>
-      </c>
-      <c r="G223" t="s">
+        <v>217</v>
+      </c>
+      <c r="G223" t="s"/>
+      <c r="H223" t="s">
         <v>231</v>
-      </c>
-      <c r="H223" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7715,13 +7202,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>41</v>
-      </c>
-      <c r="G224" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7741,13 +7226,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>230</v>
-      </c>
-      <c r="G225" t="s">
-        <v>231</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7767,13 +7250,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>41</v>
-      </c>
-      <c r="G226" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7793,13 +7274,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>230</v>
-      </c>
-      <c r="G227" t="s">
-        <v>231</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7819,13 +7298,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>41</v>
-      </c>
-      <c r="G228" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7845,13 +7322,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>230</v>
-      </c>
-      <c r="G229" t="s">
-        <v>231</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7871,13 +7346,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
-      </c>
-      <c r="G230" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7897,13 +7370,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>230</v>
-      </c>
-      <c r="G231" t="s">
-        <v>231</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7923,13 +7394,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>41</v>
-      </c>
-      <c r="G232" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7949,13 +7418,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>230</v>
-      </c>
-      <c r="G233" t="s">
-        <v>231</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7975,13 +7442,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>41</v>
-      </c>
-      <c r="G234" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8001,13 +7466,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>230</v>
-      </c>
-      <c r="G235" t="s">
-        <v>231</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8027,13 +7490,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>41</v>
-      </c>
-      <c r="G236" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8053,13 +7514,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>230</v>
-      </c>
-      <c r="G237" t="s">
-        <v>231</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8079,13 +7538,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>41</v>
-      </c>
-      <c r="G238" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8105,13 +7562,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>230</v>
-      </c>
-      <c r="G239" t="s">
-        <v>231</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8131,13 +7586,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>41</v>
-      </c>
-      <c r="G240" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8157,13 +7610,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>230</v>
-      </c>
-      <c r="G241" t="s">
-        <v>231</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8185,11 +7636,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>12</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8209,13 +7658,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>41</v>
-      </c>
-      <c r="G243" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8237,11 +7684,9 @@
       <c r="F244" t="s">
         <v>11</v>
       </c>
-      <c r="G244" t="s">
-        <v>12</v>
-      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8261,13 +7706,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>41</v>
-      </c>
-      <c r="G245" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8289,11 +7732,9 @@
       <c r="F246" t="s">
         <v>11</v>
       </c>
-      <c r="G246" t="s">
-        <v>12</v>
-      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8313,13 +7754,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>41</v>
-      </c>
-      <c r="G247" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8341,11 +7780,9 @@
       <c r="F248" t="s">
         <v>11</v>
       </c>
-      <c r="G248" t="s">
-        <v>12</v>
-      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8365,13 +7802,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
-      </c>
-      <c r="G249" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8393,11 +7828,9 @@
       <c r="F250" t="s">
         <v>11</v>
       </c>
-      <c r="G250" t="s">
-        <v>12</v>
-      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8417,13 +7850,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>41</v>
-      </c>
-      <c r="G251" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8445,11 +7876,9 @@
       <c r="F252" t="s">
         <v>11</v>
       </c>
-      <c r="G252" t="s">
-        <v>12</v>
-      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8469,13 +7898,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>41</v>
-      </c>
-      <c r="G253" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8497,11 +7924,9 @@
       <c r="F254" t="s">
         <v>11</v>
       </c>
-      <c r="G254" t="s">
-        <v>12</v>
-      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8521,13 +7946,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>41</v>
-      </c>
-      <c r="G255" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8549,11 +7972,9 @@
       <c r="F256" t="s">
         <v>11</v>
       </c>
-      <c r="G256" t="s">
-        <v>12</v>
-      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8573,13 +7994,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>41</v>
-      </c>
-      <c r="G257" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8599,13 +8018,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>41</v>
-      </c>
-      <c r="G258" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8627,11 +8044,9 @@
       <c r="F259" t="s">
         <v>11</v>
       </c>
-      <c r="G259" t="s">
-        <v>12</v>
-      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8651,13 +8066,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>41</v>
-      </c>
-      <c r="G260" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8679,11 +8092,9 @@
       <c r="F261" t="s">
         <v>11</v>
       </c>
-      <c r="G261" t="s">
-        <v>12</v>
-      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8703,13 +8114,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>283</v>
-      </c>
-      <c r="G262" t="s">
-        <v>284</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8729,13 +8138,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>41</v>
-      </c>
-      <c r="G263" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8755,13 +8162,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>283</v>
-      </c>
-      <c r="G264" t="s">
-        <v>284</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8781,13 +8186,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>41</v>
-      </c>
-      <c r="G265" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8807,13 +8210,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>283</v>
-      </c>
-      <c r="G266" t="s">
-        <v>284</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8833,13 +8234,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>41</v>
-      </c>
-      <c r="G267" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8859,13 +8258,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>283</v>
-      </c>
-      <c r="G268" t="s">
-        <v>284</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8885,13 +8282,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>41</v>
-      </c>
-      <c r="G269" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8911,13 +8306,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>283</v>
-      </c>
-      <c r="G270" t="s">
-        <v>284</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8937,13 +8330,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>41</v>
-      </c>
-      <c r="G271" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8963,13 +8354,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>283</v>
-      </c>
-      <c r="G272" t="s">
-        <v>284</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8989,13 +8378,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>41</v>
-      </c>
-      <c r="G273" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9015,13 +8402,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>283</v>
-      </c>
-      <c r="G274" t="s">
-        <v>284</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9041,13 +8426,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>41</v>
-      </c>
-      <c r="G275" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9067,13 +8450,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>283</v>
-      </c>
-      <c r="G276" t="s">
+        <v>269</v>
+      </c>
+      <c r="G276" t="s"/>
+      <c r="H276" t="s">
         <v>284</v>
-      </c>
-      <c r="H276" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9093,13 +8474,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>41</v>
-      </c>
-      <c r="G277" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9119,13 +8498,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>283</v>
-      </c>
-      <c r="G278" t="s">
-        <v>284</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9145,13 +8522,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>41</v>
-      </c>
-      <c r="G279" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9171,13 +8546,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>283</v>
-      </c>
-      <c r="G280" t="s">
-        <v>284</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9197,13 +8570,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>41</v>
-      </c>
-      <c r="G281" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9223,13 +8594,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>283</v>
-      </c>
-      <c r="G282" t="s">
-        <v>284</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9249,13 +8618,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>41</v>
-      </c>
-      <c r="G283" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9275,13 +8642,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>283</v>
-      </c>
-      <c r="G284" t="s">
-        <v>284</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9303,11 +8668,9 @@
       <c r="F285" t="s">
         <v>11</v>
       </c>
-      <c r="G285" t="s">
-        <v>12</v>
-      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9327,13 +8690,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>283</v>
-      </c>
-      <c r="G286" t="s">
-        <v>284</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9355,11 +8716,9 @@
       <c r="F287" t="s">
         <v>11</v>
       </c>
-      <c r="G287" t="s">
-        <v>12</v>
-      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9379,13 +8738,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>310</v>
-      </c>
-      <c r="G288" t="s">
-        <v>311</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9405,13 +8762,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>41</v>
-      </c>
-      <c r="G289" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9431,13 +8786,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>310</v>
-      </c>
-      <c r="G290" t="s">
-        <v>311</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9457,13 +8810,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>41</v>
-      </c>
-      <c r="G291" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9483,13 +8834,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>310</v>
-      </c>
-      <c r="G292" t="s">
-        <v>311</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9509,13 +8858,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>41</v>
-      </c>
-      <c r="G293" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9535,13 +8882,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>310</v>
-      </c>
-      <c r="G294" t="s">
-        <v>311</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9561,13 +8906,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>41</v>
-      </c>
-      <c r="G295" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9587,13 +8930,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>310</v>
-      </c>
-      <c r="G296" t="s">
-        <v>311</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9613,13 +8954,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>41</v>
-      </c>
-      <c r="G297" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9639,13 +8978,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>310</v>
-      </c>
-      <c r="G298" t="s">
-        <v>311</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9665,13 +9002,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>41</v>
-      </c>
-      <c r="G299" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9691,13 +9026,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>310</v>
-      </c>
-      <c r="G300" t="s">
-        <v>311</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9717,13 +9050,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>41</v>
-      </c>
-      <c r="G301" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9743,13 +9074,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>310</v>
-      </c>
-      <c r="G302" t="s">
-        <v>311</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9771,11 +9100,9 @@
       <c r="F303" t="s">
         <v>11</v>
       </c>
-      <c r="G303" t="s">
-        <v>12</v>
-      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9795,13 +9122,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>327</v>
-      </c>
-      <c r="G304" t="s">
-        <v>328</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9823,11 +9148,9 @@
       <c r="F305" t="s">
         <v>11</v>
       </c>
-      <c r="G305" t="s">
-        <v>12</v>
-      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9847,13 +9170,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>327</v>
-      </c>
-      <c r="G306" t="s">
-        <v>328</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9873,13 +9194,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>41</v>
-      </c>
-      <c r="G307" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9899,13 +9218,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>327</v>
-      </c>
-      <c r="G308" t="s">
-        <v>328</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9925,13 +9242,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>41</v>
-      </c>
-      <c r="G309" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9951,13 +9266,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>327</v>
-      </c>
-      <c r="G310" t="s">
-        <v>328</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9977,13 +9290,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>41</v>
-      </c>
-      <c r="G311" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10003,13 +9314,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>327</v>
-      </c>
-      <c r="G312" t="s">
-        <v>328</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10029,13 +9338,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>41</v>
-      </c>
-      <c r="G313" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10055,13 +9362,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>327</v>
-      </c>
-      <c r="G314" t="s">
-        <v>328</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10081,13 +9386,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>41</v>
-      </c>
-      <c r="G315" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10107,13 +9410,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>327</v>
-      </c>
-      <c r="G316" t="s">
-        <v>328</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10133,13 +9434,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>41</v>
-      </c>
-      <c r="G317" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10159,13 +9458,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>327</v>
-      </c>
-      <c r="G318" t="s">
-        <v>328</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10185,13 +9482,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>41</v>
-      </c>
-      <c r="G319" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10211,13 +9506,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>327</v>
-      </c>
-      <c r="G320" t="s">
-        <v>328</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10237,13 +9530,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>41</v>
-      </c>
-      <c r="G321" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10263,13 +9554,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>327</v>
-      </c>
-      <c r="G322" t="s">
+        <v>311</v>
+      </c>
+      <c r="G322" t="s"/>
+      <c r="H322" t="s">
         <v>328</v>
-      </c>
-      <c r="H322" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10291,11 +9580,9 @@
       <c r="F323" t="s">
         <v>11</v>
       </c>
-      <c r="G323" t="s">
-        <v>12</v>
-      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10315,13 +9602,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>347</v>
-      </c>
-      <c r="G324" t="s">
-        <v>348</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10341,13 +9626,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>41</v>
-      </c>
-      <c r="G325" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10367,13 +9650,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>347</v>
-      </c>
-      <c r="G326" t="s">
-        <v>348</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10393,13 +9674,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>41</v>
-      </c>
-      <c r="G327" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10419,13 +9698,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>347</v>
-      </c>
-      <c r="G328" t="s">
-        <v>348</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10445,13 +9722,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>41</v>
-      </c>
-      <c r="G329" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10471,13 +9746,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>347</v>
-      </c>
-      <c r="G330" t="s">
-        <v>348</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10497,13 +9770,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>41</v>
-      </c>
-      <c r="G331" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10523,13 +9794,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>347</v>
-      </c>
-      <c r="G332" t="s">
-        <v>348</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10549,13 +9818,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>41</v>
-      </c>
-      <c r="G333" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10575,13 +9842,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>347</v>
-      </c>
-      <c r="G334" t="s">
-        <v>348</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10601,13 +9866,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>41</v>
-      </c>
-      <c r="G335" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10627,13 +9890,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>347</v>
-      </c>
-      <c r="G336" t="s">
-        <v>348</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10653,13 +9914,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>41</v>
-      </c>
-      <c r="G337" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10679,13 +9938,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>347</v>
-      </c>
-      <c r="G338" t="s">
-        <v>348</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10705,13 +9962,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>41</v>
-      </c>
-      <c r="G339" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10731,13 +9986,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>347</v>
-      </c>
-      <c r="G340" t="s">
-        <v>348</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10757,13 +10010,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>41</v>
-      </c>
-      <c r="G341" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10783,13 +10034,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
+        <v>330</v>
+      </c>
+      <c r="G342" t="s"/>
+      <c r="H342" t="s">
         <v>347</v>
-      </c>
-      <c r="G342" t="s">
-        <v>348</v>
-      </c>
-      <c r="H342" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10809,13 +10058,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>41</v>
-      </c>
-      <c r="G343" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10835,13 +10082,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>347</v>
-      </c>
-      <c r="G344" t="s">
-        <v>348</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10863,11 +10108,9 @@
       <c r="F345" t="s">
         <v>11</v>
       </c>
-      <c r="G345" t="s">
-        <v>12</v>
-      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10887,13 +10130,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>369</v>
-      </c>
-      <c r="G346" t="s">
-        <v>370</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10913,13 +10154,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>41</v>
-      </c>
-      <c r="G347" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10939,13 +10178,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>369</v>
-      </c>
-      <c r="G348" t="s">
-        <v>370</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10965,13 +10202,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>41</v>
-      </c>
-      <c r="G349" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10991,13 +10226,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>369</v>
-      </c>
-      <c r="G350" t="s">
-        <v>370</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11017,13 +10250,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>41</v>
-      </c>
-      <c r="G351" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11043,13 +10274,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>369</v>
-      </c>
-      <c r="G352" t="s">
-        <v>370</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11069,13 +10298,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>41</v>
-      </c>
-      <c r="G353" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11095,13 +10322,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>369</v>
-      </c>
-      <c r="G354" t="s">
-        <v>370</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11121,13 +10346,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>41</v>
-      </c>
-      <c r="G355" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11147,13 +10370,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>369</v>
-      </c>
-      <c r="G356" t="s">
-        <v>370</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11173,13 +10394,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>41</v>
-      </c>
-      <c r="G357" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11199,13 +10418,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>369</v>
-      </c>
-      <c r="G358" t="s">
-        <v>370</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11225,13 +10442,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>41</v>
-      </c>
-      <c r="G359" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11251,13 +10466,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>369</v>
-      </c>
-      <c r="G360" t="s">
-        <v>370</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11277,13 +10490,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>41</v>
-      </c>
-      <c r="G361" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11305,11 +10516,9 @@
       <c r="F362" t="s">
         <v>11</v>
       </c>
-      <c r="G362" t="s">
-        <v>12</v>
-      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11329,13 +10538,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>41</v>
-      </c>
-      <c r="G363" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11357,11 +10564,9 @@
       <c r="F364" t="s">
         <v>11</v>
       </c>
-      <c r="G364" t="s">
-        <v>12</v>
-      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11381,13 +10586,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>369</v>
-      </c>
-      <c r="G365" t="s">
-        <v>370</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11409,11 +10612,9 @@
       <c r="F366" t="s">
         <v>11</v>
       </c>
-      <c r="G366" t="s">
-        <v>12</v>
-      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11433,13 +10634,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>389</v>
-      </c>
-      <c r="G367" t="s">
-        <v>390</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11459,13 +10658,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>41</v>
-      </c>
-      <c r="G368" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11485,13 +10682,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>389</v>
-      </c>
-      <c r="G369" t="s">
-        <v>390</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11511,13 +10706,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>41</v>
-      </c>
-      <c r="G370" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11537,13 +10730,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>389</v>
-      </c>
-      <c r="G371" t="s">
-        <v>390</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11563,13 +10754,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>41</v>
-      </c>
-      <c r="G372" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11589,13 +10778,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>389</v>
-      </c>
-      <c r="G373" t="s">
-        <v>390</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11615,13 +10802,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>41</v>
-      </c>
-      <c r="G374" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11641,13 +10826,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>389</v>
-      </c>
-      <c r="G375" t="s">
-        <v>390</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11667,13 +10850,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>41</v>
-      </c>
-      <c r="G376" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11693,13 +10874,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>389</v>
-      </c>
-      <c r="G377" t="s">
-        <v>390</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11719,13 +10898,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>41</v>
-      </c>
-      <c r="G378" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11745,13 +10922,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>389</v>
-      </c>
-      <c r="G379" t="s">
-        <v>390</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11773,11 +10948,9 @@
       <c r="F380" t="s">
         <v>11</v>
       </c>
-      <c r="G380" t="s">
-        <v>12</v>
-      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11797,13 +10970,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>389</v>
-      </c>
-      <c r="G381" t="s">
-        <v>390</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11825,11 +10996,9 @@
       <c r="F382" t="s">
         <v>11</v>
       </c>
-      <c r="G382" t="s">
-        <v>12</v>
-      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11849,13 +11018,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>406</v>
-      </c>
-      <c r="G383" t="s">
-        <v>407</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11875,13 +11042,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>41</v>
-      </c>
-      <c r="G384" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11901,13 +11066,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>406</v>
-      </c>
-      <c r="G385" t="s">
-        <v>407</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11927,13 +11090,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>41</v>
-      </c>
-      <c r="G386" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11953,13 +11114,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>406</v>
-      </c>
-      <c r="G387" t="s">
-        <v>407</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11979,13 +11138,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>41</v>
-      </c>
-      <c r="G388" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12005,13 +11162,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>41</v>
-      </c>
-      <c r="G389" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12031,13 +11186,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>406</v>
-      </c>
-      <c r="G390" t="s">
-        <v>407</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12057,13 +11210,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>41</v>
-      </c>
-      <c r="G391" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12083,13 +11234,11 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>406</v>
-      </c>
-      <c r="G392" t="s">
-        <v>407</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12109,13 +11258,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>41</v>
-      </c>
-      <c r="G393" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12135,13 +11282,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>406</v>
-      </c>
-      <c r="G394" t="s">
-        <v>407</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12161,13 +11306,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>41</v>
-      </c>
-      <c r="G395" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12187,13 +11330,11 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>406</v>
-      </c>
-      <c r="G396" t="s">
-        <v>407</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12213,13 +11354,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>41</v>
-      </c>
-      <c r="G397" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12239,13 +11378,11 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>406</v>
-      </c>
-      <c r="G398" t="s">
-        <v>407</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12265,13 +11402,11 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
-        <v>41</v>
-      </c>
-      <c r="G399" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12291,13 +11426,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>406</v>
-      </c>
-      <c r="G400" t="s">
-        <v>407</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12317,13 +11450,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>41</v>
-      </c>
-      <c r="G401" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12343,13 +11474,11 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>406</v>
-      </c>
-      <c r="G402" t="s">
-        <v>407</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12369,13 +11498,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>41</v>
-      </c>
-      <c r="G403" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12395,13 +11522,11 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>406</v>
-      </c>
-      <c r="G404" t="s">
+        <v>386</v>
+      </c>
+      <c r="G404" t="s"/>
+      <c r="H404" t="s">
         <v>407</v>
-      </c>
-      <c r="H404" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12421,13 +11546,11 @@
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>41</v>
-      </c>
-      <c r="G405" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12447,13 +11570,11 @@
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>406</v>
-      </c>
-      <c r="G406" t="s">
-        <v>407</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12473,13 +11594,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>41</v>
-      </c>
-      <c r="G407" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12499,13 +11618,11 @@
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>406</v>
-      </c>
-      <c r="G408" t="s">
-        <v>407</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12525,13 +11642,11 @@
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>41</v>
-      </c>
-      <c r="G409" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12551,13 +11666,11 @@
         <v>10</v>
       </c>
       <c r="F410" t="s">
-        <v>406</v>
-      </c>
-      <c r="G410" t="s">
-        <v>407</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12577,13 +11690,11 @@
         <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>41</v>
-      </c>
-      <c r="G411" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12603,13 +11714,11 @@
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>406</v>
-      </c>
-      <c r="G412" t="s">
-        <v>407</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12629,13 +11738,11 @@
         <v>10</v>
       </c>
       <c r="F413" t="s">
-        <v>41</v>
-      </c>
-      <c r="G413" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12655,13 +11762,11 @@
         <v>10</v>
       </c>
       <c r="F414" t="s">
-        <v>406</v>
-      </c>
-      <c r="G414" t="s">
-        <v>407</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12681,13 +11786,11 @@
         <v>10</v>
       </c>
       <c r="F415" t="s">
-        <v>41</v>
-      </c>
-      <c r="G415" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12707,13 +11810,11 @@
         <v>10</v>
       </c>
       <c r="F416" t="s">
-        <v>406</v>
-      </c>
-      <c r="G416" t="s">
-        <v>407</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12733,13 +11834,11 @@
         <v>10</v>
       </c>
       <c r="F417" t="s">
-        <v>41</v>
-      </c>
-      <c r="G417" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G417" t="s"/>
       <c r="H417" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12759,13 +11858,11 @@
         <v>10</v>
       </c>
       <c r="F418" t="s">
-        <v>406</v>
-      </c>
-      <c r="G418" t="s">
-        <v>407</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G418" t="s"/>
       <c r="H418" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12785,13 +11882,11 @@
         <v>10</v>
       </c>
       <c r="F419" t="s">
-        <v>41</v>
-      </c>
-      <c r="G419" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G419" t="s"/>
       <c r="H419" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12811,13 +11906,11 @@
         <v>10</v>
       </c>
       <c r="F420" t="s">
-        <v>406</v>
-      </c>
-      <c r="G420" t="s">
-        <v>407</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G420" t="s"/>
       <c r="H420" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12839,11 +11932,9 @@
       <c r="F421" t="s">
         <v>11</v>
       </c>
-      <c r="G421" t="s">
-        <v>12</v>
-      </c>
+      <c r="G421" t="s"/>
       <c r="H421" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12863,13 +11954,11 @@
         <v>10</v>
       </c>
       <c r="F422" t="s">
-        <v>446</v>
-      </c>
-      <c r="G422" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G422" t="s"/>
       <c r="H422" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12889,13 +11978,11 @@
         <v>10</v>
       </c>
       <c r="F423" t="s">
-        <v>41</v>
-      </c>
-      <c r="G423" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G423" t="s"/>
       <c r="H423" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12915,13 +12002,11 @@
         <v>10</v>
       </c>
       <c r="F424" t="s">
-        <v>446</v>
-      </c>
-      <c r="G424" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G424" t="s"/>
       <c r="H424" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12941,13 +12026,11 @@
         <v>10</v>
       </c>
       <c r="F425" t="s">
-        <v>41</v>
-      </c>
-      <c r="G425" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G425" t="s"/>
       <c r="H425" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12967,13 +12050,11 @@
         <v>10</v>
       </c>
       <c r="F426" t="s">
-        <v>446</v>
-      </c>
-      <c r="G426" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G426" t="s"/>
       <c r="H426" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12993,13 +12074,11 @@
         <v>10</v>
       </c>
       <c r="F427" t="s">
-        <v>41</v>
-      </c>
-      <c r="G427" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G427" t="s"/>
       <c r="H427" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13019,13 +12098,11 @@
         <v>10</v>
       </c>
       <c r="F428" t="s">
-        <v>446</v>
-      </c>
-      <c r="G428" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G428" t="s"/>
       <c r="H428" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13045,13 +12122,11 @@
         <v>10</v>
       </c>
       <c r="F429" t="s">
-        <v>41</v>
-      </c>
-      <c r="G429" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G429" t="s"/>
       <c r="H429" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13071,13 +12146,11 @@
         <v>10</v>
       </c>
       <c r="F430" t="s">
-        <v>446</v>
-      </c>
-      <c r="G430" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G430" t="s"/>
       <c r="H430" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13097,13 +12170,11 @@
         <v>10</v>
       </c>
       <c r="F431" t="s">
-        <v>41</v>
-      </c>
-      <c r="G431" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G431" t="s"/>
       <c r="H431" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13123,13 +12194,11 @@
         <v>10</v>
       </c>
       <c r="F432" t="s">
-        <v>446</v>
-      </c>
-      <c r="G432" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G432" t="s"/>
       <c r="H432" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13149,13 +12218,11 @@
         <v>10</v>
       </c>
       <c r="F433" t="s">
-        <v>41</v>
-      </c>
-      <c r="G433" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G433" t="s"/>
       <c r="H433" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13175,13 +12242,11 @@
         <v>10</v>
       </c>
       <c r="F434" t="s">
-        <v>446</v>
-      </c>
-      <c r="G434" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G434" t="s"/>
       <c r="H434" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13201,13 +12266,11 @@
         <v>10</v>
       </c>
       <c r="F435" t="s">
-        <v>41</v>
-      </c>
-      <c r="G435" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G435" t="s"/>
       <c r="H435" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13227,13 +12290,11 @@
         <v>10</v>
       </c>
       <c r="F436" t="s">
-        <v>446</v>
-      </c>
-      <c r="G436" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G436" t="s"/>
       <c r="H436" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13253,13 +12314,11 @@
         <v>10</v>
       </c>
       <c r="F437" t="s">
-        <v>41</v>
-      </c>
-      <c r="G437" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G437" t="s"/>
       <c r="H437" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13279,13 +12338,11 @@
         <v>10</v>
       </c>
       <c r="F438" t="s">
-        <v>446</v>
-      </c>
-      <c r="G438" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G438" t="s"/>
       <c r="H438" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13305,13 +12362,11 @@
         <v>10</v>
       </c>
       <c r="F439" t="s">
-        <v>41</v>
-      </c>
-      <c r="G439" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G439" t="s"/>
       <c r="H439" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13331,13 +12386,11 @@
         <v>10</v>
       </c>
       <c r="F440" t="s">
-        <v>446</v>
-      </c>
-      <c r="G440" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G440" t="s"/>
       <c r="H440" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13357,13 +12410,11 @@
         <v>10</v>
       </c>
       <c r="F441" t="s">
-        <v>41</v>
-      </c>
-      <c r="G441" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G441" t="s"/>
       <c r="H441" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13383,13 +12434,11 @@
         <v>10</v>
       </c>
       <c r="F442" t="s">
-        <v>446</v>
-      </c>
-      <c r="G442" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G442" t="s"/>
       <c r="H442" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13409,13 +12458,11 @@
         <v>10</v>
       </c>
       <c r="F443" t="s">
-        <v>41</v>
-      </c>
-      <c r="G443" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G443" t="s"/>
       <c r="H443" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13435,13 +12482,11 @@
         <v>10</v>
       </c>
       <c r="F444" t="s">
-        <v>446</v>
-      </c>
-      <c r="G444" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G444" t="s"/>
       <c r="H444" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13461,13 +12506,11 @@
         <v>10</v>
       </c>
       <c r="F445" t="s">
-        <v>41</v>
-      </c>
-      <c r="G445" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G445" t="s"/>
       <c r="H445" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13487,13 +12530,11 @@
         <v>10</v>
       </c>
       <c r="F446" t="s">
-        <v>446</v>
-      </c>
-      <c r="G446" t="s">
+        <v>425</v>
+      </c>
+      <c r="G446" t="s"/>
+      <c r="H446" t="s">
         <v>447</v>
-      </c>
-      <c r="H446" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13513,13 +12554,11 @@
         <v>10</v>
       </c>
       <c r="F447" t="s">
-        <v>41</v>
-      </c>
-      <c r="G447" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G447" t="s"/>
       <c r="H447" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13539,13 +12578,11 @@
         <v>10</v>
       </c>
       <c r="F448" t="s">
-        <v>446</v>
-      </c>
-      <c r="G448" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G448" t="s"/>
       <c r="H448" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13565,13 +12602,11 @@
         <v>10</v>
       </c>
       <c r="F449" t="s">
-        <v>41</v>
-      </c>
-      <c r="G449" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G449" t="s"/>
       <c r="H449" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13591,13 +12626,11 @@
         <v>10</v>
       </c>
       <c r="F450" t="s">
-        <v>446</v>
-      </c>
-      <c r="G450" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G450" t="s"/>
       <c r="H450" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13617,13 +12650,11 @@
         <v>10</v>
       </c>
       <c r="F451" t="s">
-        <v>41</v>
-      </c>
-      <c r="G451" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G451" t="s"/>
       <c r="H451" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13643,13 +12674,11 @@
         <v>10</v>
       </c>
       <c r="F452" t="s">
-        <v>446</v>
-      </c>
-      <c r="G452" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G452" t="s"/>
       <c r="H452" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13669,13 +12698,11 @@
         <v>10</v>
       </c>
       <c r="F453" t="s">
-        <v>41</v>
-      </c>
-      <c r="G453" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G453" t="s"/>
       <c r="H453" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13695,13 +12722,11 @@
         <v>10</v>
       </c>
       <c r="F454" t="s">
-        <v>446</v>
-      </c>
-      <c r="G454" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G454" t="s"/>
       <c r="H454" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13721,13 +12746,11 @@
         <v>10</v>
       </c>
       <c r="F455" t="s">
-        <v>41</v>
-      </c>
-      <c r="G455" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G455" t="s"/>
       <c r="H455" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13747,13 +12770,11 @@
         <v>10</v>
       </c>
       <c r="F456" t="s">
-        <v>446</v>
-      </c>
-      <c r="G456" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G456" t="s"/>
       <c r="H456" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13773,13 +12794,11 @@
         <v>10</v>
       </c>
       <c r="F457" t="s">
-        <v>41</v>
-      </c>
-      <c r="G457" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G457" t="s"/>
       <c r="H457" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13799,13 +12818,11 @@
         <v>10</v>
       </c>
       <c r="F458" t="s">
-        <v>446</v>
-      </c>
-      <c r="G458" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G458" t="s"/>
       <c r="H458" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13825,13 +12842,11 @@
         <v>10</v>
       </c>
       <c r="F459" t="s">
-        <v>41</v>
-      </c>
-      <c r="G459" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G459" t="s"/>
       <c r="H459" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13851,13 +12866,11 @@
         <v>10</v>
       </c>
       <c r="F460" t="s">
-        <v>446</v>
-      </c>
-      <c r="G460" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G460" t="s"/>
       <c r="H460" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13877,13 +12890,11 @@
         <v>10</v>
       </c>
       <c r="F461" t="s">
-        <v>41</v>
-      </c>
-      <c r="G461" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G461" t="s"/>
       <c r="H461" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13903,13 +12914,11 @@
         <v>10</v>
       </c>
       <c r="F462" t="s">
-        <v>446</v>
-      </c>
-      <c r="G462" t="s">
-        <v>447</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="G462" t="s"/>
       <c r="H462" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -13931,11 +12940,9 @@
       <c r="F463" t="s">
         <v>11</v>
       </c>
-      <c r="G463" t="s">
-        <v>12</v>
-      </c>
+      <c r="G463" t="s"/>
       <c r="H463" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -13955,13 +12962,11 @@
         <v>10</v>
       </c>
       <c r="F464" t="s">
-        <v>41</v>
-      </c>
-      <c r="G464" t="s">
-        <v>483</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G464" t="s"/>
       <c r="H464" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13981,13 +12986,11 @@
         <v>10</v>
       </c>
       <c r="F465" t="s">
-        <v>41</v>
-      </c>
-      <c r="G465" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G465" t="s"/>
       <c r="H465" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14007,13 +13010,11 @@
         <v>10</v>
       </c>
       <c r="F466" t="s">
-        <v>41</v>
-      </c>
-      <c r="G466" t="s">
-        <v>483</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G466" t="s"/>
       <c r="H466" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14033,13 +13034,11 @@
         <v>10</v>
       </c>
       <c r="F467" t="s">
-        <v>41</v>
-      </c>
-      <c r="G467" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G467" t="s"/>
       <c r="H467" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14059,13 +13058,11 @@
         <v>10</v>
       </c>
       <c r="F468" t="s">
-        <v>41</v>
-      </c>
-      <c r="G468" t="s">
-        <v>483</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G468" t="s"/>
       <c r="H468" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14085,13 +13082,11 @@
         <v>10</v>
       </c>
       <c r="F469" t="s">
-        <v>41</v>
-      </c>
-      <c r="G469" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G469" t="s"/>
       <c r="H469" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14111,13 +13106,11 @@
         <v>10</v>
       </c>
       <c r="F470" t="s">
-        <v>41</v>
-      </c>
-      <c r="G470" t="s">
-        <v>483</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G470" t="s"/>
       <c r="H470" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14137,13 +13130,11 @@
         <v>10</v>
       </c>
       <c r="F471" t="s">
-        <v>41</v>
-      </c>
-      <c r="G471" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G471" t="s"/>
       <c r="H471" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14163,13 +13154,11 @@
         <v>10</v>
       </c>
       <c r="F472" t="s">
-        <v>41</v>
-      </c>
-      <c r="G472" t="s">
-        <v>483</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G472" t="s"/>
       <c r="H472" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14189,13 +13178,11 @@
         <v>10</v>
       </c>
       <c r="F473" t="s">
-        <v>41</v>
-      </c>
-      <c r="G473" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G473" t="s"/>
       <c r="H473" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14215,13 +13202,11 @@
         <v>10</v>
       </c>
       <c r="F474" t="s">
-        <v>41</v>
-      </c>
-      <c r="G474" t="s">
-        <v>483</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G474" t="s"/>
       <c r="H474" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14241,13 +13226,11 @@
         <v>10</v>
       </c>
       <c r="F475" t="s">
-        <v>41</v>
-      </c>
-      <c r="G475" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G475" t="s"/>
       <c r="H475" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14267,13 +13250,11 @@
         <v>10</v>
       </c>
       <c r="F476" t="s">
-        <v>41</v>
-      </c>
-      <c r="G476" t="s">
-        <v>483</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G476" t="s"/>
       <c r="H476" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14293,13 +13274,11 @@
         <v>10</v>
       </c>
       <c r="F477" t="s">
-        <v>41</v>
-      </c>
-      <c r="G477" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G477" t="s"/>
       <c r="H477" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14319,13 +13298,11 @@
         <v>10</v>
       </c>
       <c r="F478" t="s">
-        <v>41</v>
-      </c>
-      <c r="G478" t="s">
-        <v>483</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G478" t="s"/>
       <c r="H478" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14345,13 +13322,11 @@
         <v>10</v>
       </c>
       <c r="F479" t="s">
-        <v>41</v>
-      </c>
-      <c r="G479" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G479" t="s"/>
       <c r="H479" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14371,13 +13346,11 @@
         <v>10</v>
       </c>
       <c r="F480" t="s">
-        <v>41</v>
-      </c>
-      <c r="G480" t="s">
-        <v>483</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G480" t="s"/>
       <c r="H480" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14397,13 +13370,11 @@
         <v>10</v>
       </c>
       <c r="F481" t="s">
-        <v>41</v>
-      </c>
-      <c r="G481" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G481" t="s"/>
       <c r="H481" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14423,13 +13394,11 @@
         <v>10</v>
       </c>
       <c r="F482" t="s">
-        <v>41</v>
-      </c>
-      <c r="G482" t="s">
-        <v>483</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G482" t="s"/>
       <c r="H482" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14449,13 +13418,11 @@
         <v>10</v>
       </c>
       <c r="F483" t="s">
-        <v>41</v>
-      </c>
-      <c r="G483" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G483" t="s"/>
       <c r="H483" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14475,13 +13442,11 @@
         <v>10</v>
       </c>
       <c r="F484" t="s">
-        <v>41</v>
-      </c>
-      <c r="G484" t="s">
-        <v>483</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G484" t="s"/>
       <c r="H484" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14501,13 +13466,11 @@
         <v>10</v>
       </c>
       <c r="F485" t="s">
-        <v>41</v>
-      </c>
-      <c r="G485" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G485" t="s"/>
       <c r="H485" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14527,13 +13490,11 @@
         <v>10</v>
       </c>
       <c r="F486" t="s">
-        <v>41</v>
-      </c>
-      <c r="G486" t="s">
-        <v>483</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G486" t="s"/>
       <c r="H486" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14553,13 +13514,11 @@
         <v>10</v>
       </c>
       <c r="F487" t="s">
-        <v>41</v>
-      </c>
-      <c r="G487" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G487" t="s"/>
       <c r="H487" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14579,13 +13538,11 @@
         <v>10</v>
       </c>
       <c r="F488" t="s">
-        <v>41</v>
-      </c>
-      <c r="G488" t="s">
-        <v>483</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G488" t="s"/>
       <c r="H488" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14605,13 +13562,11 @@
         <v>10</v>
       </c>
       <c r="F489" t="s">
-        <v>41</v>
-      </c>
-      <c r="G489" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G489" t="s"/>
       <c r="H489" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14631,13 +13586,11 @@
         <v>10</v>
       </c>
       <c r="F490" t="s">
-        <v>41</v>
-      </c>
-      <c r="G490" t="s">
-        <v>483</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G490" t="s"/>
       <c r="H490" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14657,13 +13610,11 @@
         <v>10</v>
       </c>
       <c r="F491" t="s">
-        <v>41</v>
-      </c>
-      <c r="G491" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G491" t="s"/>
       <c r="H491" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14683,13 +13634,11 @@
         <v>10</v>
       </c>
       <c r="F492" t="s">
-        <v>41</v>
-      </c>
-      <c r="G492" t="s">
-        <v>483</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G492" t="s"/>
       <c r="H492" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14709,13 +13658,11 @@
         <v>10</v>
       </c>
       <c r="F493" t="s">
-        <v>41</v>
-      </c>
-      <c r="G493" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G493" t="s"/>
       <c r="H493" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14735,13 +13682,11 @@
         <v>10</v>
       </c>
       <c r="F494" t="s">
-        <v>41</v>
-      </c>
-      <c r="G494" t="s">
-        <v>483</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G494" t="s"/>
       <c r="H494" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14763,11 +13708,9 @@
       <c r="F495" t="s">
         <v>11</v>
       </c>
-      <c r="G495" t="s">
-        <v>12</v>
-      </c>
+      <c r="G495" t="s"/>
       <c r="H495" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14787,13 +13730,11 @@
         <v>10</v>
       </c>
       <c r="F496" t="s">
-        <v>41</v>
-      </c>
-      <c r="G496" t="s">
-        <v>483</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G496" t="s"/>
       <c r="H496" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14815,11 +13756,9 @@
       <c r="F497" t="s">
         <v>11</v>
       </c>
-      <c r="G497" t="s">
-        <v>12</v>
-      </c>
+      <c r="G497" t="s"/>
       <c r="H497" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14839,13 +13778,11 @@
         <v>10</v>
       </c>
       <c r="F498" t="s">
-        <v>41</v>
-      </c>
-      <c r="G498" t="s">
-        <v>483</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G498" t="s"/>
       <c r="H498" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -14867,11 +13804,9 @@
       <c r="F499" t="s">
         <v>11</v>
       </c>
-      <c r="G499" t="s">
-        <v>12</v>
-      </c>
+      <c r="G499" t="s"/>
       <c r="H499" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -14891,13 +13826,11 @@
         <v>10</v>
       </c>
       <c r="F500" t="s">
-        <v>15</v>
-      </c>
-      <c r="G500" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G500" t="s"/>
       <c r="H500" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -14919,11 +13852,9 @@
       <c r="F501" t="s">
         <v>11</v>
       </c>
-      <c r="G501" t="s">
-        <v>12</v>
-      </c>
+      <c r="G501" t="s"/>
       <c r="H501" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -14943,13 +13874,11 @@
         <v>10</v>
       </c>
       <c r="F502" t="s">
-        <v>15</v>
-      </c>
-      <c r="G502" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G502" t="s"/>
       <c r="H502" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -14971,11 +13900,9 @@
       <c r="F503" t="s">
         <v>11</v>
       </c>
-      <c r="G503" t="s">
-        <v>12</v>
-      </c>
+      <c r="G503" t="s"/>
       <c r="H503" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
